--- a/StructureDefinition-ANCRegistry.xlsx
+++ b/StructureDefinition-ANCRegistry.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-15T12:19:16+00:00</t>
+    <t>2026-01-15T13:05:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -455,10 +455,10 @@
 </t>
   </si>
   <si>
-    <t>ANCRegistry.womanSProfileAndHistory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hispethiopia.org/enable/StructureDefinition/WomanSProfileAndHistory
+    <t>ANCRegistry.womansProfileAndHistory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://hispethiopia.org/enable/StructureDefinition/WomansProfileAndHistory
 </t>
   </si>
   <si>

--- a/StructureDefinition-ANCRegistry.xlsx
+++ b/StructureDefinition-ANCRegistry.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-15T13:05:29+00:00</t>
+    <t>2026-01-15T13:53:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
